--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>0.1430066550527778</v>
+        <v>0.304127813721</v>
       </c>
       <c r="R2">
-        <v>1.287059895475</v>
+        <v>2.737150323489</v>
       </c>
       <c r="S2">
-        <v>0.0001073265763783876</v>
+        <v>0.0002134179197580672</v>
       </c>
       <c r="T2">
-        <v>0.0001073265763783876</v>
+        <v>0.0002134179197580673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>18.46755749685067</v>
+        <v>26.878908370296</v>
       </c>
       <c r="R3">
-        <v>166.208017471656</v>
+        <v>241.910175332664</v>
       </c>
       <c r="S3">
-        <v>0.01385991245985379</v>
+        <v>0.01886194044395675</v>
       </c>
       <c r="T3">
-        <v>0.01385991245985379</v>
+        <v>0.01886194044395675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>7.315309496097556</v>
+        <v>11.352477454321</v>
       </c>
       <c r="R4">
-        <v>65.837785464878</v>
+        <v>102.172297088889</v>
       </c>
       <c r="S4">
-        <v>0.005490143959207361</v>
+        <v>0.007966460195660333</v>
       </c>
       <c r="T4">
-        <v>0.00549014395920736</v>
+        <v>0.007966460195660333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.002004492364555556</v>
+        <v>0.04678017358799999</v>
       </c>
       <c r="R5">
-        <v>0.018040431281</v>
+        <v>0.4210215622919999</v>
       </c>
       <c r="S5">
-        <v>1.504372665628528E-06</v>
+        <v>3.282740638194666E-05</v>
       </c>
       <c r="T5">
-        <v>1.504372665628528E-06</v>
+        <v>3.282740638194666E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>5.368162023977778</v>
+        <v>7.843742715618667</v>
       </c>
       <c r="R6">
-        <v>48.3134582158</v>
+        <v>70.593684440568</v>
       </c>
       <c r="S6">
-        <v>0.004028808668137714</v>
+        <v>0.005504249128034421</v>
       </c>
       <c r="T6">
-        <v>0.004028808668137713</v>
+        <v>0.005504249128034422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
         <v>693.2323589670187</v>
@@ -883,10 +883,10 @@
         <v>6239.091230703168</v>
       </c>
       <c r="S7">
-        <v>0.5202712817468866</v>
+        <v>0.4864672064997094</v>
       </c>
       <c r="T7">
-        <v>0.5202712817468865</v>
+        <v>0.4864672064997094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>274.6009730533316</v>
+        <v>292.7910842717076</v>
       </c>
       <c r="R8">
-        <v>2471.408757479984</v>
+        <v>2635.119758445368</v>
       </c>
       <c r="S8">
-        <v>0.2060881872742991</v>
+        <v>0.2054625105295395</v>
       </c>
       <c r="T8">
-        <v>0.2060881872742991</v>
+        <v>0.2054625105295395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>0.07524432890755557</v>
+        <v>1.206504730122667</v>
       </c>
       <c r="R9">
-        <v>0.6771989601680001</v>
+        <v>10.858542571104</v>
       </c>
       <c r="S9">
-        <v>5.647091186460431E-05</v>
+        <v>0.0008466497244387621</v>
       </c>
       <c r="T9">
-        <v>5.64709118646043E-05</v>
+        <v>0.0008466497244387622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>1.492951791027778</v>
+        <v>2.813997919154334</v>
       </c>
       <c r="R10">
-        <v>13.43656611925</v>
+        <v>25.325981272389</v>
       </c>
       <c r="S10">
-        <v>0.001120461172732541</v>
+        <v>0.001974688124580364</v>
       </c>
       <c r="T10">
-        <v>0.001120461172732541</v>
+        <v>0.001974688124580364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>192.7964333593867</v>
+        <v>248.7019891332293</v>
       </c>
       <c r="R11">
-        <v>1735.16790023448</v>
+        <v>2238.317902199064</v>
       </c>
       <c r="S11">
-        <v>0.1446938334638365</v>
+        <v>0.174523535059504</v>
       </c>
       <c r="T11">
-        <v>0.1446938334638364</v>
+        <v>0.174523535059504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>76.36990327541557</v>
+        <v>105.0408627308655</v>
       </c>
       <c r="R12">
-        <v>687.32912947874</v>
+        <v>945.3677645777891</v>
       </c>
       <c r="S12">
-        <v>0.05731565607120852</v>
+        <v>0.07371112210795494</v>
       </c>
       <c r="T12">
-        <v>0.0573156560712085</v>
+        <v>0.07371112210795493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.02092637202555556</v>
+        <v>0.4328420657213333</v>
       </c>
       <c r="R13">
-        <v>0.18833734823</v>
+        <v>3.895578591492</v>
       </c>
       <c r="S13">
-        <v>1.570525416942628E-05</v>
+        <v>0.0003037415490540286</v>
       </c>
       <c r="T13">
-        <v>1.570525416942627E-05</v>
+        <v>0.0003037415490540286</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>0.3450486960666667</v>
+        <v>0.2710693378633333</v>
       </c>
       <c r="R14">
-        <v>3.1054382646</v>
+        <v>2.43962404077</v>
       </c>
       <c r="S14">
-        <v>0.0002589592436729246</v>
+        <v>0.0001902195445039451</v>
       </c>
       <c r="T14">
-        <v>0.0002589592436729246</v>
+        <v>0.0001902195445039451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>44.558811836224</v>
+        <v>23.95719025261333</v>
       </c>
       <c r="R15">
-        <v>401.0293065260159</v>
+        <v>215.61471227352</v>
       </c>
       <c r="S15">
-        <v>0.03344141375872146</v>
+        <v>0.0168116610066169</v>
       </c>
       <c r="T15">
-        <v>0.03344141375872146</v>
+        <v>0.0168116610066169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>17.65049327264533</v>
+        <v>10.11847127364111</v>
       </c>
       <c r="R16">
-        <v>158.854439453808</v>
+        <v>91.06624146277001</v>
       </c>
       <c r="S16">
-        <v>0.01324670529244709</v>
+        <v>0.007100511669522242</v>
       </c>
       <c r="T16">
-        <v>0.01324670529244708</v>
+        <v>0.007100511669522243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>0.004836470557333334</v>
+        <v>0.04169520217333332</v>
       </c>
       <c r="R17">
-        <v>0.043528235016</v>
+        <v>0.37525681956</v>
       </c>
       <c r="S17">
-        <v>3.629773918436787E-06</v>
+        <v>2.925909078440333E-05</v>
       </c>
       <c r="T17">
-        <v>3.629773918436786E-06</v>
+        <v>2.925909078440333E-05</v>
       </c>
     </row>
   </sheetData>
